--- a/test/test-results.xlsx
+++ b/test/test-results.xlsx
@@ -135,7 +135,7 @@
     <t>Invalid Example</t>
   </si>
   <si>
-    <t xml:space="preserve">8/11/2019, 7:32:20 PM</t>
+    <t xml:space="preserve">8/11/2019, 7:43:15 PM</t>
   </si>
   <si>
     <t xml:space="preserve">fail</t>

--- a/test/test-results.xlsx
+++ b/test/test-results.xlsx
@@ -135,7 +135,7 @@
     <t>Invalid Example</t>
   </si>
   <si>
-    <t xml:space="preserve">8/11/2019, 7:43:15 PM</t>
+    <t xml:space="preserve">8/11/2019, 10:23:13 PM</t>
   </si>
   <si>
     <t xml:space="preserve">fail</t>

--- a/test/test-results.xlsx
+++ b/test/test-results.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">fail</t>
   </si>
   <si>
-    <t xml:space="preserve">8/28/2019, 11:21:18 PM</t>
+    <t xml:space="preserve">8/29/2019, 8:32:01 PM</t>
   </si>
   <si>
     <t xml:space="preserve">All results returned</t>

--- a/test/test-results.xlsx
+++ b/test/test-results.xlsx
@@ -144,7 +144,7 @@
     <t xml:space="preserve">fail</t>
   </si>
   <si>
-    <t xml:space="preserve">8/29/2019, 8:32:01 PM</t>
+    <t xml:space="preserve">8/29/2019, 8:50:52 PM</t>
   </si>
   <si>
     <t xml:space="preserve">All results returned</t>
